--- a/excel_data/Daten_2021/2020_3-1-1.xlsx
+++ b/excel_data/Daten_2021/2020_3-1-1.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\Daten_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355F529C-7537-4145-B7F1-70173A6FB5AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A7497D-541A-4099-BA91-5FD0E306EA63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10485" xr2:uid="{F9E47A88-0A5D-40DF-901A-F71740E08D4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10485" activeTab="5" xr2:uid="{F9E47A88-0A5D-40DF-901A-F71740E08D4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="2" xr2:uid="{92F27817-BACA-4B56-B2A3-AEF051EFFF80}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1.1_Download" sheetId="4" r:id="rId1"/>
@@ -1545,7 +1546,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1755,207 +1756,210 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2257,8 +2261,11 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:I39"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="1">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -2271,18 +2278,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="83" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="85" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="3"/>
@@ -2298,42 +2305,42 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="85"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="87" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87" t="s">
+      <c r="G7" s="90"/>
+      <c r="H7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="88"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="85"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="64" t="s">
         <v>3</v>
       </c>
@@ -2355,16 +2362,16 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="86"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="87" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3063,29 +3070,29 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="2:10" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3111,9 +3118,10 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5609,6 +5617,9 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="1">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5619,58 +5630,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="87" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="50" t="s">
         <v>3</v>
       </c>
@@ -5692,27 +5703,27 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="87" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -6241,10 +6252,10 @@
         <v>82</v>
       </c>
       <c r="G27" s="34">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H27" s="35">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -6262,7 +6273,7 @@
         <f>'2019'!C30</f>
         <v>92.7</v>
       </c>
-      <c r="E28" s="34" t="str">
+      <c r="E28" s="153" t="str">
         <f>'2019'!C9</f>
         <v>16 </v>
       </c>
@@ -6394,28 +6405,28 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6440,7 +6451,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6456,30 +6468,30 @@
     </row>
     <row r="2" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="110"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="99" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
@@ -6488,25 +6500,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
     </row>
     <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
     </row>
     <row r="9" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="s">
@@ -6723,57 +6735,57 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="108" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="108" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
-      <c r="B37" s="108" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="108" t="s">
+      <c r="C37" s="107"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="66" t="s">
         <v>12</v>
       </c>
@@ -6794,26 +6806,26 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="67" t="s">
@@ -7024,6 +7036,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A9:C9"/>
@@ -7034,12 +7052,6 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34" r:id="rId1" location="fussnote-1-382978" tooltip="Link zu Fußnote 1" display="https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Soziales/Kindertagesbetreuung/Tabellen/betreuungsquote-migration-unter6jahren-aktuell.html - fussnote-1-382978" xr:uid="{E26DEB42-0DDE-4233-B549-CC1E59BDEF1D}"/>
@@ -7057,6 +7069,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7072,46 +7085,46 @@
     </row>
     <row r="4" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="56" t="s">
         <v>12</v>
       </c>
@@ -7186,23 +7199,23 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="112"/>
+      <c r="C17" s="115"/>
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="112"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="56" t="s">
         <v>26</v>
       </c>
@@ -7211,25 +7224,25 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
     </row>
     <row r="20" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
     </row>
     <row r="21" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
@@ -7472,7 +7485,10 @@
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7487,23 +7503,23 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="118"/>
+      <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="38" t="s">
         <v>26</v>
       </c>
@@ -7512,25 +7528,25 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
     </row>
     <row r="6" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
     </row>
     <row r="7" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
@@ -7747,57 +7763,57 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="120" t="s">
+      <c r="A32" s="119"/>
+      <c r="B32" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120" t="s">
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="120" t="s">
+      <c r="A33" s="119"/>
+      <c r="B33" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120" t="s">
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="38" t="s">
         <v>12</v>
       </c>
@@ -7818,15 +7834,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
@@ -8037,6 +8053,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:A34"/>
@@ -8045,12 +8067,6 @@
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{6E30FF77-44F0-4598-95E6-86B4A578AAC3}"/>
@@ -8067,6 +8083,9 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8077,28 +8096,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:3" s="7" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
     </row>
     <row r="4" spans="1:3" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
@@ -8106,26 +8125,26 @@
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="132"/>
+      <c r="C8" s="126"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="132"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
@@ -8348,23 +8367,23 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="127"/>
+      <c r="C34" s="136"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="25" t="s">
         <v>26</v>
       </c>
@@ -8373,25 +8392,25 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -8604,6 +8623,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C8"/>
@@ -8611,12 +8636,6 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -8632,6 +8651,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8645,57 +8665,57 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132" t="s">
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="132"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -8716,35 +8736,35 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -8971,57 +8991,57 @@
       <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="126" t="s">
+      <c r="A26" s="147"/>
+      <c r="B26" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="126" t="s">
+      <c r="C26" s="152"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="127"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="136"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="126" t="s">
+      <c r="A27" s="147"/>
+      <c r="B27" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="126" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="145"/>
-      <c r="G27" s="127"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="136"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
+      <c r="A28" s="148"/>
       <c r="B28" s="25" t="s">
         <v>12</v>
       </c>
@@ -9042,26 +9062,26 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -9277,6 +9297,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
@@ -9287,15 +9316,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="Fussnote1" tooltip="Link zur Fußnote 1" display="https://www.destatis.de/DE/ZahlenFakten/GesellschaftStaat/Soziales/Sozialleistungen/Kindertagesbetreuung/Tabellen/BetreuungsquoteMigrationU62014.html - Fussnote1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
